--- a/data/trans_bre/P15_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>20,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>-12,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>91,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 4,78</t>
+          <t>-27,86; 6,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 16,96</t>
+          <t>-17,95; 12,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 28,74</t>
+          <t>-13,38; 30,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 26,3</t>
+          <t>-1,01; 41,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 5,59</t>
+          <t>-29,91; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 22,66</t>
+          <t>-19,29; 16,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 82,76</t>
+          <t>-20,86; 82,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 148,01</t>
+          <t>-6,11; 424,81</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>-11,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 24,68</t>
+          <t>-0,64; 38,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 16,14</t>
+          <t>-1,3; 23,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 30,76</t>
+          <t>-12,29; 37,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 18,16</t>
+          <t>-35,08; 22,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 40,0</t>
+          <t>-0,87; 77,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 21,02</t>
+          <t>-1,41; 32,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 96,12</t>
+          <t>-23,86; 152,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 65,41</t>
+          <t>-57,8; 126,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-28,41%</t>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 11,09</t>
+          <t>-21,38; 8,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 8,29</t>
+          <t>-18,23; 8,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 4,75</t>
+          <t>-12,77; 19,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 1,81</t>
+          <t>-9,53; 18,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 17,27</t>
+          <t>-25,38; 13,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 10,93</t>
+          <t>-21,02; 10,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 10,2</t>
+          <t>-22,16; 55,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 7,07</t>
+          <t>-26,3; 91,54</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>13,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 16,73</t>
+          <t>-7,78; 20,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 13,78</t>
+          <t>-5,2; 17,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 13,73</t>
+          <t>-12,05; 16,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 13,42</t>
+          <t>-10,56; 17,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 26,82</t>
+          <t>-10,3; 36,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 18,85</t>
+          <t>-6,13; 24,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 33,09</t>
+          <t>-22,43; 41,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 48,89</t>
+          <t>-26,45; 70,01</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-15,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>-25,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>3,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 8,56</t>
+          <t>-19,84; 11,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 7,73</t>
+          <t>-18,39; 7,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 6,07</t>
+          <t>-34,09; 2,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 12,23</t>
+          <t>-16,48; 18,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 11,66</t>
+          <t>-23,4; 15,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 9,54</t>
+          <t>-19,97; 9,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 10,95</t>
+          <t>-49,52; 5,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 37,87</t>
+          <t>-41,99; 75,07</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>13,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>30,71%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 20,19</t>
+          <t>-11,45; 21,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 15,85</t>
+          <t>-4,16; 15,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 24,33</t>
+          <t>-9,66; 26,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 33,76</t>
+          <t>-8,06; 35,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 28,79</t>
+          <t>-12,18; 32,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 20,36</t>
+          <t>-4,17; 17,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 41,99</t>
+          <t>-11,75; 46,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 75,0</t>
+          <t>-15,36; 113,44</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,47</t>
+          <t>-4,75; 7,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,48</t>
+          <t>-4,63; 5,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 9,9</t>
+          <t>-4,72; 12,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,7</t>
+          <t>-4,52; 14,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 10,4</t>
+          <t>-6,3; 11,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,0</t>
+          <t>-5,3; 7,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 19,7</t>
+          <t>-8,47; 25,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 34,07</t>
+          <t>-12,52; 50,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-10,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-12,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,07%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>91,53%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.45573855843035</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.221420690170296</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.59609493163439</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>22.11986036371826</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1199654283758549</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.04928129633361862</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1703696645276019</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.072336387593836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,86; 6,85</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,95; 12,74</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,38; 30,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 41,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-29,91; 8,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,29; 16,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-20,86; 82,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 424,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.86430180478017</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.54531732663436</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.89092675168497</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.553019431232974</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2991199068528589</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2721209832099908</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.24337656719638</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.005876292942248236</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.847811769534955</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.62171280286021</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>30.62861374358533</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>42.63478337277349</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.08242850952407492</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1743754375075632</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.8583640345323367</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.590362665742617</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>18,72</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,07</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,37%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>35,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-11,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 38,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 23,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 37,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-35,08; 22,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 77,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 32,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; 152,5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-57,8; 126,81</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>18.72432977445322</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.08551302765912</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.3721731196248</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.033397197976683</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2836845976535758</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1317786258104109</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3574767466069607</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.04933084269487324</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,91</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,32%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6424258437371237</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4421541197351559</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.33312811784323</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-31.65497793284271</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.00867382761884759</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.005141424024079573</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1936355484224279</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5369074184790253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,38; 8,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-18,23; 8,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 19,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 18,94</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-25,38; 13,14</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,02; 10,52</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-22,16; 55,36</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-26,3; 91,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>38.32217903963706</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>28.09295659732285</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>36.55406119657007</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.182099271172</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.771176659765381</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4099941444606413</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.502970318501174</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.349597353956144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,27%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-7.095858234167862</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.262390335541721</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.821631938003411</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.434255045051993</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.09315650501227979</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.04132084212531863</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.07806968429478359</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1166655126198523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 20,72</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 17,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 16,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 17,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-10,3; 36,54</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 24,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,43; 41,86</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-26,45; 70,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.38405665997685</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.70890873639014</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.30090208554643</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.49234561429041</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2537756037033467</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.18309670461881</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2220345426292099</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3081645939718775</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.83984810628376</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.67796447588664</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.81777601280247</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.25896183531821</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1313838449791467</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2343005440275778</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5260295266648758</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8159490983103389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,64</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,65</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-15,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-5,43%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-25,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 11,3</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,39; 7,82</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-34,09; 2,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,48; 18,93</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-23,4; 15,54</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-19,97; 9,84</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-49,52; 5,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,99; 75,07</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.039478293056511</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.182360357722525</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.0923334093144601</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.861284077591533</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.09011293433200056</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.05323620965351028</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.001864059053966541</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1518896215123621</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,58</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,25</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.777173242597716</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.190421373902607</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.19222977525128</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.612658087073786</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1029793915897548</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.08509184205624543</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2419880756421002</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2374831396502814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 21,56</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 15,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 26,65</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 35,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 32,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 17,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 46,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 113,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.72347192457223</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.4738983244418</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.91345047940267</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.09034239837905</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3654265378450952</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2309308686877191</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4002937167803681</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7846069933862722</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,45%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.63786871566516</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.028566567074243</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-16.86605027907336</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1.521013733386722</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.04692610249561077</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.0470535145600302</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.2687792494749452</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.04676573888751528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 7,93</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 5,94</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 12,03</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 14,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 11,25</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 7,36</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 25,02</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 50,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.83504847759394</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-18.02788716960657</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-35.65222323656623</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-16.35138770719347</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.2339833913560019</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1938527809439805</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.5014153098650346</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.4174508586207537</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.30334295530164</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.236034901015818</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.221830558758647</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>19.13512199502764</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1554367983228428</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.1010857676377838</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.0310837246776878</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.779327557049794</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.665306855544394</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.882602158668834</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>10.04603026821773</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>16.34381351690242</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.070676146509419</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.03090682521142946</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1408859140790646</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.3792594829670504</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.44559747489711</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.787822469105127</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-10.14309535488835</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-5.371915056871247</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1218308178237203</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.04833877792453469</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.1179506481020443</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.105448074461933</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>21.55562679822257</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>13.83817635134194</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>27.14428025471229</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>38.79757174858296</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.3251982691945439</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.1656435178818268</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.4632189808889378</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>1.223098836198009</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.702139905955558</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6558596668842176</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3.52994408250783</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>7.072177188981249</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.02290090191770303</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.007852945907890034</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.06729135857945097</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.2161012251425694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.746637006500477</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.617014197860687</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.760182992061733</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.513044991794037</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.06304418894703981</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.05302596758983039</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.08307251747541179</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.07435022701245643</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.934568390946276</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.346604355106316</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>11.64855226287182</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>16.04505616898047</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1124703101217629</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.09290107348805418</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.2421098213611284</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.5737643004284031</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
